--- a/data/trans_camb/P40_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>9.421693549053977</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2026776246168538</v>
+        <v>0.2026776246168649</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>8.417795920562765</v>
@@ -664,7 +664,7 @@
         <v>9.583274249416684</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.175423977300039</v>
+        <v>-1.175423977300027</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.522133916155537</v>
+        <v>3.211817471439447</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.195911167115681</v>
+        <v>2.96213437069318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.58907192179731</v>
+        <v>-10.34694698587907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.365124077121776</v>
+        <v>2.23982897924355</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.809868367767358</v>
+        <v>4.866888839212588</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.70243768593477</v>
+        <v>-4.955000432361292</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.248907257137424</v>
+        <v>5.085035977337053</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.618560730760279</v>
+        <v>6.516065873289342</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.586285824099527</v>
+        <v>-4.908790959740246</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.20117430553597</v>
+        <v>12.07698782486198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.06078839971235</v>
+        <v>11.75148085840165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5886883789825526</v>
+        <v>1.155859163684644</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.15532657586195</v>
+        <v>10.78301816425989</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.57404989326268</v>
+        <v>13.5985704799509</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.539734001645091</v>
+        <v>5.050397241157627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.66843832792376</v>
+        <v>11.6384398301489</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.89971088091419</v>
+        <v>12.44213434111414</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.656916510721664</v>
+        <v>2.484862652989754</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.163056650259173</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003507642695068191</v>
+        <v>0.003507642695068383</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1329258797426264</v>
@@ -769,7 +769,7 @@
         <v>0.1513300123262441</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.01856118486687415</v>
+        <v>-0.01856118486687398</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04617650494853288</v>
+        <v>0.04195977924534146</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0431571790281693</v>
+        <v>0.03942376839628849</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1417801367742701</v>
+        <v>-0.1414063710213573</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04013298918452904</v>
+        <v>0.03789285155803017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0794860703594986</v>
+        <v>0.0825043650792206</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07766119490412302</v>
+        <v>-0.08194591042928015</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08055723972367632</v>
+        <v>0.07895580155990167</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1026844687550468</v>
+        <v>0.09986626186976401</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07013395124569838</v>
+        <v>-0.07534046150486685</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.175755016339658</v>
+        <v>0.1743846626297729</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1767767227333873</v>
+        <v>0.1717706767428844</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.007817959415595299</v>
+        <v>0.01772857438995482</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2030624176901356</v>
+        <v>0.1969248725671184</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2462008103398827</v>
+        <v>0.2477878169017829</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1008005381589502</v>
+        <v>0.09073909719200647</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1891343981385819</v>
+        <v>0.1923213743024509</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2104605302293882</v>
+        <v>0.2021302650767569</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.04403882293217293</v>
+        <v>0.04102655551832628</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.940347334889647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.106433380865015</v>
+        <v>-4.106433380865004</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.9661246426094894</v>
@@ -878,7 +878,7 @@
         <v>2.478041605778003</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-5.059077530224931</v>
+        <v>-5.059077530224954</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.074187942480875</v>
+        <v>-4.055313236135246</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.025606565037966</v>
+        <v>-1.349654321316544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.46978717611388</v>
+        <v>-7.572582863804433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.010031285288873</v>
+        <v>-4.809796438994943</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1998782964064404</v>
+        <v>-0.3411236379555702</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.890454936259477</v>
+        <v>-9.04672057358828</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.856847415569905</v>
+        <v>-4.035961703799311</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2004137105525591</v>
+        <v>-0.1727129363319371</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.434462688318513</v>
+        <v>-7.780362516982676</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.456599078963281</v>
+        <v>2.249655447207002</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.221487376607979</v>
+        <v>5.21720061320406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.4620297815283924</v>
+        <v>-0.8422201325026805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.941865984807811</v>
+        <v>3.106821968145653</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.293486812448001</v>
+        <v>7.822259510901532</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.557076261046101</v>
+        <v>-1.798096242958108</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.188474919455689</v>
+        <v>1.259493036517595</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.888427316854608</v>
+        <v>4.905230919083157</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.589940321782628</v>
+        <v>-2.606589267251054</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.02300798719635211</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04869270823359496</v>
+        <v>-0.04869270823359483</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.01315615807175431</v>
@@ -983,7 +983,7 @@
         <v>0.03139208064665621</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.06408890369564477</v>
+        <v>-0.06408890369564504</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04773792384699178</v>
+        <v>-0.04728116972270732</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0116494958169351</v>
+        <v>-0.01584333732912251</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08727492967161608</v>
+        <v>-0.08829237404120807</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06643193465743799</v>
+        <v>-0.06377056999205105</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.00268288268054644</v>
+        <v>-0.004577453006678313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1171820019920081</v>
+        <v>-0.1186207486721609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0482935782405321</v>
+        <v>-0.05070456079603068</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.002536049988072336</v>
+        <v>-0.002216859344844093</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09244349159508096</v>
+        <v>-0.09645557581350418</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02957126177263331</v>
+        <v>0.02705894192415208</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06323871166528967</v>
+        <v>0.06279943440091744</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.005727921553476153</v>
+        <v>-0.01057590673731549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04107442437466663</v>
+        <v>0.04388343310101825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1014440576632085</v>
+        <v>0.1088534235866218</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02186478395589371</v>
+        <v>-0.02501324843905047</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0151685278378745</v>
+        <v>0.01604778000054267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06241328535644122</v>
+        <v>0.06317488314716231</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.03341515460641024</v>
+        <v>-0.03381933378385156</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.5606281664103485</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.03815413196593</v>
+        <v>-2.038154131965919</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.382818598608205</v>
@@ -1092,7 +1092,7 @@
         <v>-1.415005124118573</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.418891764244725</v>
+        <v>-3.418891764244703</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.868153589870055</v>
+        <v>-7.742512131277529</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.299708861636303</v>
+        <v>-5.005535203842426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.077586198147913</v>
+        <v>-7.592699931762556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.44192967181377</v>
+        <v>-3.63335023676128</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.468356783449629</v>
+        <v>-4.388972200829609</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.253681154995501</v>
+        <v>-5.18531761683969</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.642955675573211</v>
+        <v>-4.990934832566183</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.993800431536423</v>
+        <v>-4.187742651953466</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.582289901092415</v>
+        <v>-5.7370579750538</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.236786938392429</v>
+        <v>-1.361652972855319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.064082419052031</v>
+        <v>0.7924675596314971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.252773616891833</v>
+        <v>-1.532079911702141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.866924751965711</v>
+        <v>4.093680861025185</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.075630611879316</v>
+        <v>3.592656061486347</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.140464196773312</v>
+        <v>1.310040507214031</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.01524664965059089</v>
+        <v>0.0134560581907243</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9685214668922687</v>
+        <v>1.075219434943286</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.9836845480095018</v>
+        <v>-1.230658203172246</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.007018369639296329</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.0255151630564454</v>
+        <v>-0.02551516305644526</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.0282844521269764</v>
@@ -1197,7 +1197,7 @@
         <v>-0.01679634560345264</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04058281251018301</v>
+        <v>-0.04058281251018275</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08770137585214348</v>
+        <v>-0.08703324520058987</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05930949576592118</v>
+        <v>-0.05567777935678477</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07914108242789168</v>
+        <v>-0.08465676872884821</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04250284287149113</v>
+        <v>-0.04440961194720533</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0548456685896607</v>
+        <v>-0.05445863269905703</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06385291415595504</v>
+        <v>-0.06374674429149182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05479564477813389</v>
+        <v>-0.0579704533117566</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04696100358399134</v>
+        <v>-0.04861270557349268</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.06588080127190905</v>
+        <v>-0.06728445262272058</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01395353121423857</v>
+        <v>-0.01559568405196408</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0124102260031736</v>
+        <v>0.009110089605172251</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01470727814812411</v>
+        <v>-0.01698257911191111</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.04897822852250754</v>
+        <v>0.05217691124971605</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03895632941292355</v>
+        <v>0.04611217252645691</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01487625587349699</v>
+        <v>0.01611597294015412</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.0002560930387011888</v>
+        <v>0.0003516311004367709</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01174036499925084</v>
+        <v>0.01302142699716456</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.01183499412137853</v>
+        <v>-0.01465793281091886</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.860525484398168</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.144498308298513</v>
+        <v>-0.1444983082985019</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.7332938698073943</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.029146746555489</v>
+        <v>-5.411593899314989</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.077507123070974</v>
+        <v>-6.77748026322047</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.70190299343809</v>
+        <v>-6.538130188309793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.170894966378802</v>
+        <v>-5.151397305458253</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.184033207429138</v>
+        <v>-3.557040701488021</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.689203832372909</v>
+        <v>-4.67057673433027</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.187756859085664</v>
+        <v>-4.246047642026626</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.244200447748532</v>
+        <v>-4.665733096024179</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.886413343318968</v>
+        <v>-4.79779676320485</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.853813839571659</v>
+        <v>2.965992850500383</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.373178004587231</v>
+        <v>1.778750893155912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.339070705117793</v>
+        <v>0.8100398427603726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.900573457435054</v>
+        <v>5.945680973201763</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.85473101809429</v>
+        <v>7.572202552614452</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.791952747689901</v>
+        <v>4.83696961182269</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.576982472813016</v>
+        <v>2.450715268461603</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.29992107064514</v>
+        <v>2.161117384056439</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6956192208430445</v>
+        <v>1.28735521113051</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.02284451692353929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.001774226731656925</v>
+        <v>-0.001774226731656788</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.008508523346002144</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05474319123759906</v>
+        <v>-0.05917894809676596</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07820535010796431</v>
+        <v>-0.07467039613405939</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06292778681590702</v>
+        <v>-0.07072119158814179</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06126991545975147</v>
+        <v>-0.06169332306017066</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04866348936017696</v>
+        <v>-0.04235951601880093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05542337434884813</v>
+        <v>-0.05464002096477354</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04738742731321704</v>
+        <v>-0.04807375851811584</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04819808556482038</v>
+        <v>-0.05352127616038703</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05537184970254943</v>
+        <v>-0.05432479493501993</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03267928060516889</v>
+        <v>0.03391108433365065</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01502992804717387</v>
+        <v>0.01994705723715145</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0153158342802073</v>
+        <v>0.009248193187689446</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07578916493362685</v>
+        <v>0.07554343877395202</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0870366361365584</v>
+        <v>0.09612329736007398</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06159035796823036</v>
+        <v>0.06307566805340102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03016851469088445</v>
+        <v>0.02897885539748516</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02706208321485073</v>
+        <v>0.02544118513168488</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.008181708158391499</v>
+        <v>0.01550661057574396</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.053575001999775</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6591587819665068</v>
+        <v>0.6591587819665179</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.01716318884386059</v>
@@ -1520,7 +1520,7 @@
         <v>1.421274996836297</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.147783352502108</v>
+        <v>-1.147783352502096</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.063492614326547</v>
+        <v>-3.119028276954552</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.100141099140662</v>
+        <v>-2.031445236552696</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.778236519702954</v>
+        <v>-4.482204090348595</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9111138516053304</v>
+        <v>-1.049647443947767</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.152452576588033</v>
+        <v>0.6800341578692473</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.230188217002984</v>
+        <v>-1.519479858278759</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.397157822170194</v>
+        <v>-1.416046285253476</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.06494467854533693</v>
+        <v>-0.06103895834767287</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.526851210960388</v>
+        <v>-2.433568890458089</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7375251846719316</v>
+        <v>0.7814736365730849</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.459502480303676</v>
+        <v>1.595366127444817</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.065162346591297</v>
+        <v>-0.7923692761200516</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.539113973957585</v>
+        <v>3.366285054989134</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.434223553954441</v>
+        <v>5.174571084369443</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.594785154435924</v>
+        <v>2.611485621944918</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.442984546272538</v>
+        <v>1.448802737962082</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.822859929726671</v>
+        <v>2.787912912161391</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2660326245439932</v>
+        <v>0.3408389083299875</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.04250786319861101</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00917594338165773</v>
+        <v>0.009175943381657885</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.0002202341339366596</v>
@@ -1625,7 +1625,7 @@
         <v>0.01823747736284087</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.0147280948129659</v>
+        <v>-0.01472809481296575</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03596331900266832</v>
+        <v>-0.03685605728069025</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02474179819298452</v>
+        <v>-0.02390786421394902</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05628311354427339</v>
+        <v>-0.05278438992155998</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01248620673429844</v>
+        <v>-0.01441831389879344</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01575534625619063</v>
+        <v>0.009671502579835123</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01683688998385522</v>
+        <v>-0.02057540004698927</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01776221714476687</v>
+        <v>-0.01806250106692829</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0009959802279026523</v>
+        <v>-0.0007284220571936227</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03195665898887552</v>
+        <v>-0.03094781869160615</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.008901015964072369</v>
+        <v>0.009408053004317615</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01750010783409223</v>
+        <v>0.01905470086199557</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.01272281546720209</v>
+        <v>-0.01055861678153712</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.05020045909917168</v>
+        <v>0.04754163145992478</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07578063673703143</v>
+        <v>0.07324592790421898</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03628958513065066</v>
+        <v>0.03699978188952149</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0186949249964295</v>
+        <v>0.01880146084773041</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.03657866617054625</v>
+        <v>0.03611806874231666</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.00353864910837741</v>
+        <v>0.004400957932860165</v>
       </c>
     </row>
     <row r="34">
